--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Arf1-Pld2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Arf1-Pld2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.5709383701808</v>
+        <v>50.63667066666667</v>
       </c>
       <c r="H2">
-        <v>44.5709383701808</v>
+        <v>151.910012</v>
       </c>
       <c r="I2">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="J2">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.87467951562085</v>
+        <v>5.015232333333333</v>
       </c>
       <c r="N2">
-        <v>3.87467951562085</v>
+        <v>15.045697</v>
       </c>
       <c r="O2">
-        <v>0.1849055334503325</v>
+        <v>0.2232512241152976</v>
       </c>
       <c r="P2">
-        <v>0.1849055334503325</v>
+        <v>0.2232512241152976</v>
       </c>
       <c r="Q2">
-        <v>172.6981018949389</v>
+        <v>253.9546679798182</v>
       </c>
       <c r="R2">
-        <v>172.6981018949389</v>
+        <v>2285.592011818364</v>
       </c>
       <c r="S2">
-        <v>0.03484980781418367</v>
+        <v>0.044832154455344</v>
       </c>
       <c r="T2">
-        <v>0.03484980781418367</v>
+        <v>0.044832154455344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.5709383701808</v>
+        <v>50.63667066666667</v>
       </c>
       <c r="H3">
-        <v>44.5709383701808</v>
+        <v>151.910012</v>
       </c>
       <c r="I3">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="J3">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.96365650077044</v>
+        <v>7.971374</v>
       </c>
       <c r="N3">
-        <v>7.96365650077044</v>
+        <v>23.914122</v>
       </c>
       <c r="O3">
-        <v>0.3800376644193811</v>
+        <v>0.3548427839629211</v>
       </c>
       <c r="P3">
-        <v>0.3800376644193811</v>
+        <v>0.3548427839629211</v>
       </c>
       <c r="Q3">
-        <v>354.9476430971289</v>
+        <v>403.6438399988293</v>
       </c>
       <c r="R3">
-        <v>354.9476430971289</v>
+        <v>3632.794559989464</v>
       </c>
       <c r="S3">
-        <v>0.07162705907189193</v>
+        <v>0.07125768990083611</v>
       </c>
       <c r="T3">
-        <v>0.07162705907189193</v>
+        <v>0.0712576899008361</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.5709383701808</v>
+        <v>50.63667066666667</v>
       </c>
       <c r="H4">
-        <v>44.5709383701808</v>
+        <v>151.910012</v>
       </c>
       <c r="I4">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="J4">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.2088881744345</v>
+        <v>6.516197000000001</v>
       </c>
       <c r="N4">
-        <v>6.2088881744345</v>
+        <v>19.548591</v>
       </c>
       <c r="O4">
-        <v>0.2962974809655493</v>
+        <v>0.290066114615979</v>
       </c>
       <c r="P4">
-        <v>0.2962974809655493</v>
+        <v>0.290066114615979</v>
       </c>
       <c r="Q4">
-        <v>276.7359721700644</v>
+        <v>329.9585214881214</v>
       </c>
       <c r="R4">
-        <v>276.7359721700644</v>
+        <v>2969.626693393092</v>
       </c>
       <c r="S4">
-        <v>0.05584424692325272</v>
+        <v>0.05824957468546308</v>
       </c>
       <c r="T4">
-        <v>0.05584424692325272</v>
+        <v>0.05824957468546307</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.5709383701808</v>
+        <v>50.63667066666667</v>
       </c>
       <c r="H5">
-        <v>44.5709383701808</v>
+        <v>151.910012</v>
       </c>
       <c r="I5">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="J5">
-        <v>0.1884735797998424</v>
+        <v>0.20081482031288</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.90768961472361</v>
+        <v>2.96172</v>
       </c>
       <c r="N5">
-        <v>2.90768961472361</v>
+        <v>8.885159999999999</v>
       </c>
       <c r="O5">
-        <v>0.138759321164737</v>
+        <v>0.1318398773058023</v>
       </c>
       <c r="P5">
-        <v>0.138759321164737</v>
+        <v>0.1318398773058023</v>
       </c>
       <c r="Q5">
-        <v>129.5984546174608</v>
+        <v>149.97164024688</v>
       </c>
       <c r="R5">
-        <v>129.5984546174608</v>
+        <v>1349.74476222192</v>
       </c>
       <c r="S5">
-        <v>0.02615246599051401</v>
+        <v>0.02647540127123684</v>
       </c>
       <c r="T5">
-        <v>0.02615246599051401</v>
+        <v>0.02647540127123684</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>67.3186687363547</v>
+        <v>67.324</v>
       </c>
       <c r="H6">
-        <v>67.3186687363547</v>
+        <v>201.972</v>
       </c>
       <c r="I6">
-        <v>0.284665096766035</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="J6">
-        <v>0.284665096766035</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.87467951562085</v>
+        <v>5.015232333333333</v>
       </c>
       <c r="N6">
-        <v>3.87467951562085</v>
+        <v>15.045697</v>
       </c>
       <c r="O6">
-        <v>0.1849055334503325</v>
+        <v>0.2232512241152976</v>
       </c>
       <c r="P6">
-        <v>0.1849055334503325</v>
+        <v>0.2232512241152976</v>
       </c>
       <c r="Q6">
-        <v>260.8382667716193</v>
+        <v>337.6455016093333</v>
       </c>
       <c r="R6">
-        <v>260.8382667716193</v>
+        <v>3038.809514484</v>
       </c>
       <c r="S6">
-        <v>0.05263615157221423</v>
+        <v>0.05960660380735628</v>
       </c>
       <c r="T6">
-        <v>0.05263615157221423</v>
+        <v>0.05960660380735628</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>67.3186687363547</v>
+        <v>67.324</v>
       </c>
       <c r="H7">
-        <v>67.3186687363547</v>
+        <v>201.972</v>
       </c>
       <c r="I7">
-        <v>0.284665096766035</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="J7">
-        <v>0.284665096766035</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.96365650077044</v>
+        <v>7.971374</v>
       </c>
       <c r="N7">
-        <v>7.96365650077044</v>
+        <v>23.914122</v>
       </c>
       <c r="O7">
-        <v>0.3800376644193811</v>
+        <v>0.3548427839629211</v>
       </c>
       <c r="P7">
-        <v>0.3800376644193811</v>
+        <v>0.3548427839629211</v>
       </c>
       <c r="Q7">
-        <v>536.1027539054828</v>
+        <v>536.664783176</v>
       </c>
       <c r="R7">
-        <v>536.1027539054828</v>
+        <v>4829.983048584</v>
       </c>
       <c r="S7">
-        <v>0.1081834585166811</v>
+        <v>0.09474068203385877</v>
       </c>
       <c r="T7">
-        <v>0.1081834585166811</v>
+        <v>0.09474068203385876</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>67.3186687363547</v>
+        <v>67.324</v>
       </c>
       <c r="H8">
-        <v>67.3186687363547</v>
+        <v>201.972</v>
       </c>
       <c r="I8">
-        <v>0.284665096766035</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="J8">
-        <v>0.284665096766035</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.2088881744345</v>
+        <v>6.516197000000001</v>
       </c>
       <c r="N8">
-        <v>6.2088881744345</v>
+        <v>19.548591</v>
       </c>
       <c r="O8">
-        <v>0.2962974809655493</v>
+        <v>0.290066114615979</v>
       </c>
       <c r="P8">
-        <v>0.2962974809655493</v>
+        <v>0.290066114615979</v>
       </c>
       <c r="Q8">
-        <v>417.9740862358261</v>
+        <v>438.696446828</v>
       </c>
       <c r="R8">
-        <v>417.9740862358261</v>
+        <v>3948.268021452001</v>
       </c>
       <c r="S8">
-        <v>0.0843455510905905</v>
+        <v>0.07744573872044951</v>
       </c>
       <c r="T8">
-        <v>0.0843455510905905</v>
+        <v>0.07744573872044951</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>67.3186687363547</v>
+        <v>67.324</v>
       </c>
       <c r="H9">
-        <v>67.3186687363547</v>
+        <v>201.972</v>
       </c>
       <c r="I9">
-        <v>0.284665096766035</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="J9">
-        <v>0.284665096766035</v>
+        <v>0.2669934019110801</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.90768961472361</v>
+        <v>2.96172</v>
       </c>
       <c r="N9">
-        <v>2.90768961472361</v>
+        <v>8.885159999999999</v>
       </c>
       <c r="O9">
-        <v>0.138759321164737</v>
+        <v>0.1318398773058023</v>
       </c>
       <c r="P9">
-        <v>0.138759321164737</v>
+        <v>0.1318398773058023</v>
       </c>
       <c r="Q9">
-        <v>195.7417939617175</v>
+        <v>199.39483728</v>
       </c>
       <c r="R9">
-        <v>195.7417939617175</v>
+        <v>1794.55353552</v>
       </c>
       <c r="S9">
-        <v>0.03949993558654918</v>
+        <v>0.03520037734941557</v>
       </c>
       <c r="T9">
-        <v>0.03949993558654918</v>
+        <v>0.03520037734941557</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>62.6949317203161</v>
+        <v>71.72398199999999</v>
       </c>
       <c r="H10">
-        <v>62.6949317203161</v>
+        <v>215.171946</v>
       </c>
       <c r="I10">
-        <v>0.265113068037628</v>
+        <v>0.2844428428612245</v>
       </c>
       <c r="J10">
-        <v>0.265113068037628</v>
+        <v>0.2844428428612245</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.87467951562085</v>
+        <v>5.015232333333333</v>
       </c>
       <c r="N10">
-        <v>3.87467951562085</v>
+        <v>15.045697</v>
       </c>
       <c r="O10">
-        <v>0.1849055334503325</v>
+        <v>0.2232512241152976</v>
       </c>
       <c r="P10">
-        <v>0.1849055334503325</v>
+        <v>0.2232512241152976</v>
       </c>
       <c r="Q10">
-        <v>242.9227676699566</v>
+        <v>359.7124336018179</v>
       </c>
       <c r="R10">
-        <v>242.9227676699566</v>
+        <v>3237.411902416361</v>
       </c>
       <c r="S10">
-        <v>0.0490208732701519</v>
+        <v>0.06350221285960361</v>
       </c>
       <c r="T10">
-        <v>0.0490208732701519</v>
+        <v>0.06350221285960361</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>62.6949317203161</v>
+        <v>71.72398199999999</v>
       </c>
       <c r="H11">
-        <v>62.6949317203161</v>
+        <v>215.171946</v>
       </c>
       <c r="I11">
-        <v>0.265113068037628</v>
+        <v>0.2844428428612245</v>
       </c>
       <c r="J11">
-        <v>0.265113068037628</v>
+        <v>0.2844428428612245</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.96365650077044</v>
+        <v>7.971374</v>
       </c>
       <c r="N11">
-        <v>7.96365650077044</v>
+        <v>23.914122</v>
       </c>
       <c r="O11">
-        <v>0.3800376644193811</v>
+        <v>0.3548427839629211</v>
       </c>
       <c r="P11">
-        <v>0.3800376644193811</v>
+        <v>0.3548427839629211</v>
       </c>
       <c r="Q11">
-        <v>499.2809005598542</v>
+        <v>571.738685291268</v>
       </c>
       <c r="R11">
-        <v>499.2809005598542</v>
+        <v>5145.648167621412</v>
       </c>
       <c r="S11">
-        <v>0.1007529511840766</v>
+        <v>0.1009324902392046</v>
       </c>
       <c r="T11">
-        <v>0.1007529511840766</v>
+        <v>0.1009324902392046</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>62.6949317203161</v>
+        <v>71.72398199999999</v>
       </c>
       <c r="H12">
-        <v>62.6949317203161</v>
+        <v>215.171946</v>
       </c>
       <c r="I12">
-        <v>0.265113068037628</v>
+        <v>0.2844428428612245</v>
       </c>
       <c r="J12">
-        <v>0.265113068037628</v>
+        <v>0.2844428428612245</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.2088881744345</v>
+        <v>6.516197000000001</v>
       </c>
       <c r="N12">
-        <v>6.2088881744345</v>
+        <v>19.548591</v>
       </c>
       <c r="O12">
-        <v>0.2962974809655493</v>
+        <v>0.290066114615979</v>
       </c>
       <c r="P12">
-        <v>0.2962974809655493</v>
+        <v>0.290066114615979</v>
       </c>
       <c r="Q12">
-        <v>389.265820155249</v>
+        <v>467.367596336454</v>
       </c>
       <c r="R12">
-        <v>389.265820155249</v>
+        <v>4206.308367028087</v>
       </c>
       <c r="S12">
-        <v>0.07855233423059743</v>
+        <v>0.08250723025907883</v>
       </c>
       <c r="T12">
-        <v>0.07855233423059743</v>
+        <v>0.08250723025907883</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>62.6949317203161</v>
+        <v>71.72398199999999</v>
       </c>
       <c r="H13">
-        <v>62.6949317203161</v>
+        <v>215.171946</v>
       </c>
       <c r="I13">
-        <v>0.265113068037628</v>
+        <v>0.2844428428612245</v>
       </c>
       <c r="J13">
-        <v>0.265113068037628</v>
+        <v>0.2844428428612245</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.90768961472361</v>
+        <v>2.96172</v>
       </c>
       <c r="N13">
-        <v>2.90768961472361</v>
+        <v>8.885159999999999</v>
       </c>
       <c r="O13">
-        <v>0.138759321164737</v>
+        <v>0.1318398773058023</v>
       </c>
       <c r="P13">
-        <v>0.138759321164737</v>
+        <v>0.1318398773058023</v>
       </c>
       <c r="Q13">
-        <v>182.297401858969</v>
+        <v>212.42635196904</v>
       </c>
       <c r="R13">
-        <v>182.297401858969</v>
+        <v>1911.83716772136</v>
       </c>
       <c r="S13">
-        <v>0.03678690935280198</v>
+        <v>0.03750090950333744</v>
       </c>
       <c r="T13">
-        <v>0.03678690935280198</v>
+        <v>0.03750090950333744</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>61.8992082188342</v>
+        <v>62.47139133333334</v>
       </c>
       <c r="H14">
-        <v>61.8992082188342</v>
+        <v>187.414174</v>
       </c>
       <c r="I14">
-        <v>0.2617482553964947</v>
+        <v>0.2477489349148154</v>
       </c>
       <c r="J14">
-        <v>0.2617482553964947</v>
+        <v>0.2477489349148154</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.87467951562085</v>
+        <v>5.015232333333333</v>
       </c>
       <c r="N14">
-        <v>3.87467951562085</v>
+        <v>15.045697</v>
       </c>
       <c r="O14">
-        <v>0.1849055334503325</v>
+        <v>0.2232512241152976</v>
       </c>
       <c r="P14">
-        <v>0.1849055334503325</v>
+        <v>0.2232512241152976</v>
       </c>
       <c r="Q14">
-        <v>239.8395941186666</v>
+        <v>313.3085417232531</v>
       </c>
       <c r="R14">
-        <v>239.8395941186666</v>
+        <v>2819.776875509278</v>
       </c>
       <c r="S14">
-        <v>0.04839870079378272</v>
+        <v>0.05531025299299375</v>
       </c>
       <c r="T14">
-        <v>0.04839870079378272</v>
+        <v>0.05531025299299375</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>61.8992082188342</v>
+        <v>62.47139133333334</v>
       </c>
       <c r="H15">
-        <v>61.8992082188342</v>
+        <v>187.414174</v>
       </c>
       <c r="I15">
-        <v>0.2617482553964947</v>
+        <v>0.2477489349148154</v>
       </c>
       <c r="J15">
-        <v>0.2617482553964947</v>
+        <v>0.2477489349148154</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.96365650077044</v>
+        <v>7.971374</v>
       </c>
       <c r="N15">
-        <v>7.96365650077044</v>
+        <v>23.914122</v>
       </c>
       <c r="O15">
-        <v>0.3800376644193811</v>
+        <v>0.3548427839629211</v>
       </c>
       <c r="P15">
-        <v>0.3800376644193811</v>
+        <v>0.3548427839629211</v>
       </c>
       <c r="Q15">
-        <v>492.944031924462</v>
+        <v>497.9828246183587</v>
       </c>
       <c r="R15">
-        <v>492.944031924462</v>
+        <v>4481.845421565228</v>
       </c>
       <c r="S15">
-        <v>0.09947419564673149</v>
+        <v>0.08791192178902167</v>
       </c>
       <c r="T15">
-        <v>0.09947419564673149</v>
+        <v>0.08791192178902164</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>61.8992082188342</v>
+        <v>62.47139133333334</v>
       </c>
       <c r="H16">
-        <v>61.8992082188342</v>
+        <v>187.414174</v>
       </c>
       <c r="I16">
-        <v>0.2617482553964947</v>
+        <v>0.2477489349148154</v>
       </c>
       <c r="J16">
-        <v>0.2617482553964947</v>
+        <v>0.2477489349148154</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.2088881744345</v>
+        <v>6.516197000000001</v>
       </c>
       <c r="N16">
-        <v>6.2088881744345</v>
+        <v>19.548591</v>
       </c>
       <c r="O16">
-        <v>0.2962974809655493</v>
+        <v>0.290066114615979</v>
       </c>
       <c r="P16">
-        <v>0.2962974809655493</v>
+        <v>0.290066114615979</v>
       </c>
       <c r="Q16">
-        <v>384.3252619167785</v>
+        <v>407.0758927920928</v>
       </c>
       <c r="R16">
-        <v>384.3252619167785</v>
+        <v>3663.683035128834</v>
       </c>
       <c r="S16">
-        <v>0.0775553487211086</v>
+        <v>0.07186357095098757</v>
       </c>
       <c r="T16">
-        <v>0.0775553487211086</v>
+        <v>0.07186357095098757</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.8992082188342</v>
+        <v>62.47139133333334</v>
       </c>
       <c r="H17">
-        <v>61.8992082188342</v>
+        <v>187.414174</v>
       </c>
       <c r="I17">
-        <v>0.2617482553964947</v>
+        <v>0.2477489349148154</v>
       </c>
       <c r="J17">
-        <v>0.2617482553964947</v>
+        <v>0.2477489349148154</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.90768961472361</v>
+        <v>2.96172</v>
       </c>
       <c r="N17">
-        <v>2.90768961472361</v>
+        <v>8.885159999999999</v>
       </c>
       <c r="O17">
-        <v>0.138759321164737</v>
+        <v>0.1318398773058023</v>
       </c>
       <c r="P17">
-        <v>0.138759321164737</v>
+        <v>0.1318398773058023</v>
       </c>
       <c r="Q17">
-        <v>179.9836848975185</v>
+        <v>185.02276913976</v>
       </c>
       <c r="R17">
-        <v>179.9836848975185</v>
+        <v>1665.20492225784</v>
       </c>
       <c r="S17">
-        <v>0.0363200102348718</v>
+        <v>0.03266318918181248</v>
       </c>
       <c r="T17">
-        <v>0.0363200102348718</v>
+        <v>0.03266318918181247</v>
       </c>
     </row>
   </sheetData>
